--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="5115" tabRatio="885" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="5115" tabRatio="885" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K15"/>
+  <oleSize ref="A1:G15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="204">
   <si>
     <t>cname</t>
   </si>
@@ -632,9 +632,6 @@
   </si>
   <si>
     <t>NewJobTitle</t>
-  </si>
-  <si>
-    <t>seashore1</t>
   </si>
   <si>
     <t>JobsFilter</t>
@@ -1280,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1299,7 @@
         <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1319,10 +1316,10 @@
         <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1387,7 @@
         <v>175</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
@@ -2312,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,16 +2357,16 @@
         <v>134</v>
       </c>
       <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
         <v>200</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>201</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>202</v>
-      </c>
-      <c r="K1" t="s">
-        <v>203</v>
       </c>
       <c r="L1" t="s">
         <v>141</v>
@@ -2404,7 +2401,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>171</v>

--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="5115" tabRatio="885" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="9135" tabRatio="885" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G15"/>
+  <oleSize ref="D1:M28"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="207">
   <si>
     <t>cname</t>
   </si>
@@ -653,6 +653,15 @@
   </si>
   <si>
     <t>deep</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>CandidateAction</t>
+  </si>
+  <si>
+    <t>reject</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1509,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,18 +1531,18 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="11" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" customWidth="1"/>
+    <col min="22" max="22" width="21.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1574,16 +1583,19 @@
         <v>151</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -1620,7 +1632,10 @@
         <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="9135" tabRatio="885" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="9015" tabRatio="885" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="9015" tabRatio="885" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4560" tabRatio="885" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
     <sheet name="JobsFlowAssignCandidate" sheetId="4" r:id="rId2"/>
-    <sheet name="JobsFlowDontMatchSave" sheetId="5" r:id="rId3"/>
-    <sheet name="JobsFlowAdvertisePool" sheetId="7" r:id="rId4"/>
-    <sheet name="JobsFlowMatchCandidateJob" sheetId="6" r:id="rId5"/>
-    <sheet name="JobsFlowAdvertisePoolAssignment" sheetId="8" r:id="rId6"/>
-    <sheet name="AddSelectNewTemplate" sheetId="12" r:id="rId7"/>
-    <sheet name="JobsFlowChangeMarginDontMatch" sheetId="9" r:id="rId8"/>
-    <sheet name="DataTextValidations" sheetId="3" r:id="rId9"/>
-    <sheet name="CloneJobData" sheetId="10" r:id="rId10"/>
-    <sheet name="FromAssignmentFindMatch" sheetId="11" r:id="rId11"/>
-    <sheet name="AddContactS2" sheetId="2" r:id="rId12"/>
+    <sheet name="JobsFlowAssignParameters" sheetId="13" r:id="rId3"/>
+    <sheet name="JobsFlowDontMatchSave" sheetId="5" r:id="rId4"/>
+    <sheet name="JobsFlowAdvertisePool" sheetId="7" r:id="rId5"/>
+    <sheet name="JobsFlowMatchCandidateJob" sheetId="6" r:id="rId6"/>
+    <sheet name="JobsFlowAdvertisePoolAssignment" sheetId="8" r:id="rId7"/>
+    <sheet name="AddSelectNewTemplate" sheetId="12" r:id="rId8"/>
+    <sheet name="JobsFlowChangeMarginDontMatch" sheetId="9" r:id="rId9"/>
+    <sheet name="DataTextValidations" sheetId="3" r:id="rId10"/>
+    <sheet name="CloneJobData" sheetId="10" r:id="rId11"/>
+    <sheet name="FromAssignmentFindMatch" sheetId="11" r:id="rId12"/>
+    <sheet name="AddContactS2" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="actionCandidateAccepts">DataTextValidations!$I$3:$I$4</definedName>
@@ -31,7 +32,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="D1:M28"/>
+  <oleSize ref="A1:H13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="215">
   <si>
     <t>cname</t>
   </si>
@@ -625,9 +626,6 @@
     <t>jobLatestSep</t>
   </si>
   <si>
-    <t>seashore</t>
-  </si>
-  <si>
     <t>CopyFrom</t>
   </si>
   <si>
@@ -662,6 +660,33 @@
   </si>
   <si>
     <t>reject</t>
+  </si>
+  <si>
+    <t>job4</t>
+  </si>
+  <si>
+    <t>job5</t>
+  </si>
+  <si>
+    <t>seashore1</t>
+  </si>
+  <si>
+    <t>JobNow1</t>
+  </si>
+  <si>
+    <t>JobNow</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1309,519 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,13 +1836,13 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>196</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1322,13 +1856,13 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
@@ -1396,7 +1930,7 @@
         <v>175</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
@@ -1464,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1520,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +2117,7 @@
         <v>151</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>175</v>
@@ -1632,10 +2166,10 @@
         <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1655,6 +2189,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
+      <formula1>CWeekPatternJ</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>feeFrequency</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>billingtype</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -1810,12 +2475,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +2586,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>171</v>
@@ -2002,12 +2667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2747,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>171</v>
@@ -2134,12 +2799,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2907,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>171</v>
@@ -2320,12 +2985,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,16 +3037,16 @@
         <v>134</v>
       </c>
       <c r="H1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" t="s">
         <v>199</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>200</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>201</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
       </c>
       <c r="L1" t="s">
         <v>141</v>
@@ -2416,46 +3081,46 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>171</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
+        <v>212</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="L2" t="s">
         <v>140</v>
       </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>20</v>
+      <c r="M2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="O2" t="s">
         <v>146</v>
       </c>
-      <c r="P2">
-        <v>0</v>
+      <c r="P2" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="R2" t="s">
         <v>160</v>
@@ -2466,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -2605,513 +3270,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4560" tabRatio="885" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6000" tabRatio="885" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H13"/>
+  <oleSize ref="L1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="214">
   <si>
     <t>cname</t>
   </si>
@@ -671,12 +671,6 @@
     <t>seashore1</t>
   </si>
   <si>
-    <t>JobNow1</t>
-  </si>
-  <si>
-    <t>JobNow</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -687,6 +681,9 @@
   </si>
   <si>
     <t>40.00</t>
+  </si>
+  <si>
+    <t>ctc</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1818,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,13 +1853,13 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -2192,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3096,16 +3093,16 @@
         <v>173</v>
       </c>
       <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="K2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L2" t="s">
         <v>140</v>
@@ -3114,7 +3111,7 @@
         <v>107</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O2" t="s">
         <v>146</v>

--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6000" tabRatio="885" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="3795" tabRatio="885" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
     <sheet name="JobsFlowAssignCandidate" sheetId="4" r:id="rId2"/>
-    <sheet name="JobsFlowAssignParameters" sheetId="13" r:id="rId3"/>
-    <sheet name="JobsFlowDontMatchSave" sheetId="5" r:id="rId4"/>
-    <sheet name="JobsFlowAdvertisePool" sheetId="7" r:id="rId5"/>
-    <sheet name="JobsFlowMatchCandidateJob" sheetId="6" r:id="rId6"/>
-    <sheet name="JobsFlowAdvertisePoolAssignment" sheetId="8" r:id="rId7"/>
-    <sheet name="AddSelectNewTemplate" sheetId="12" r:id="rId8"/>
-    <sheet name="JobsFlowChangeMarginDontMatch" sheetId="9" r:id="rId9"/>
-    <sheet name="DataTextValidations" sheetId="3" r:id="rId10"/>
-    <sheet name="CloneJobData" sheetId="10" r:id="rId11"/>
-    <sheet name="FromAssignmentFindMatch" sheetId="11" r:id="rId12"/>
-    <sheet name="AddContactS2" sheetId="2" r:id="rId13"/>
+    <sheet name="AssignJobCanAcceptsClientReject" sheetId="15" r:id="rId3"/>
+    <sheet name="JobsFlowAssignParameters" sheetId="13" r:id="rId4"/>
+    <sheet name="StrictOffAlignOn" sheetId="14" r:id="rId5"/>
+    <sheet name="JobsFlowDontMatchSave" sheetId="5" r:id="rId6"/>
+    <sheet name="JobsFlowAdvertisePool" sheetId="7" r:id="rId7"/>
+    <sheet name="JobsFlowMatchCandidateJob" sheetId="6" r:id="rId8"/>
+    <sheet name="JobsFlowAdvertisePoolAssignment" sheetId="8" r:id="rId9"/>
+    <sheet name="AddSelectNewTemplate" sheetId="12" r:id="rId10"/>
+    <sheet name="JobsFlowChangeMarginDontMatch" sheetId="9" r:id="rId11"/>
+    <sheet name="DataTextValidations" sheetId="3" r:id="rId12"/>
+    <sheet name="CloneJobData" sheetId="10" r:id="rId13"/>
+    <sheet name="FromAssignmentFindMatch" sheetId="11" r:id="rId14"/>
+    <sheet name="AddContactS2" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="actionCandidateAccepts">DataTextValidations!$I$3:$I$4</definedName>
@@ -32,7 +34,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="L1:P18"/>
+  <oleSize ref="A1:H10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="221">
   <si>
     <t>cname</t>
   </si>
@@ -665,9 +667,6 @@
     <t>job4</t>
   </si>
   <si>
-    <t>job5</t>
-  </si>
-  <si>
     <t>seashore1</t>
   </si>
   <si>
@@ -684,12 +683,36 @@
   </si>
   <si>
     <t>ctc</t>
+  </si>
+  <si>
+    <t>jobLatestDecMorn</t>
+  </si>
+  <si>
+    <t>TimeSheetCandidate</t>
+  </si>
+  <si>
+    <t>Newjob</t>
+  </si>
+  <si>
+    <t>TimeSheetFilterJob</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>ClientAction</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>jobAssignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1306,6 +1329,293 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="18" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
+      <formula1>CWeekPatternJ</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>billingtype</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>feeFrequency</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>categories</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1813,7 +2123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1853,13 +2163,13 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
@@ -1995,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -2051,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,8 +2499,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
+      <formula1>CWeekPatternJ</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>feeFrequency</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>billingtype</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG2"/>
+  <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2720,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>171</v>
@@ -2297,7 +2752,7 @@
         <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2771,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="14" width="22.5703125" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -2472,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -2664,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -2744,7 +3334,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>171</v>
@@ -2796,19 +3386,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -2904,7 +3494,7 @@
         <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>171</v>
@@ -2980,291 +3570,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="18" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" t="s">
-        <v>210</v>
-      </c>
-      <c r="L2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E2">
-      <formula1>CWeekPatternJ</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>billingtype</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
-      <formula1>feeFrequency</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>categories</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="3795" tabRatio="885" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="3795" tabRatio="885" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H10"/>
+  <oleSize ref="B1:G10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="223">
   <si>
     <t>cname</t>
   </si>
@@ -707,6 +707,12 @@
   </si>
   <si>
     <t>jobAssignment</t>
+  </si>
+  <si>
+    <t>kiran</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
 </sst>
 </file>
@@ -1331,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2131,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -2134,11 +2140,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="3" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2148,17 +2154,20 @@
       <c r="C1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -2168,7 +2177,10 @@
       <c r="C2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2621,7 +2633,7 @@
         <v>205</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3258,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3376,7 @@
         <v>160</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +3402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
+++ b/src/test/java/TBR/Xlsdata_Files/Jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11895" windowHeight="3795" tabRatio="885" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="3795" tabRatio="885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JobsClientAdd" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="SectorClient">DataTextValidations!$B$3:$B$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:G10"/>
+  <oleSize ref="L1:Q10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="225">
   <si>
     <t>cname</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>CandidateAcceptCss</t>
+  </si>
+  <si>
+    <t>accept</t>
   </si>
 </sst>
 </file>
@@ -2373,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,10 +3109,10 @@
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="24.7109375" customWidth="1"/>
     <col min="21" max="21" width="27.42578125" customWidth="1"/>
-    <col min="22" max="22" width="27.140625" customWidth="1"/>
+    <col min="22" max="23" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -3174,13 +3180,16 @@
         <v>186</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>160</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>88</v>
@@ -3238,10 +3247,13 @@
         <v>183</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="V2" t="s">
         <v>187</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
